--- a/userInformation/3.0email/大兴10kV线路停电报备信息汇总.xlsx
+++ b/userInformation/3.0email/大兴10kV线路停电报备信息汇总.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChaiPC\Documents\github\awesome-work\userInformation\3.0email\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336AA4E6-183D-46F3-8AD4-D8496479A35F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28980" windowHeight="12765"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1127,9 +1133,6 @@
   </si>
   <si>
     <t>北中心各位同事：1.停电地点：北京市大兴区西红门镇髙户：城市学院、无线电、大成兴业、粮油、如歌、太平洋、模具厂、出版社、欣业城建、阶梯公司、局属变：曙光001、加油站002、京广方园008、模具厂012、宇照峰桥014、工商所013；2.停电时间：time；3.停电原因：10kV福光路线路故障；4.预计恢复时间：time。如有以上地点客户反映停电报修情况或投诉，请客服人员代为解释，谢谢！</t>
-  </si>
-  <si>
-    <t>芦城供电所</t>
   </si>
   <si>
     <t>万成路</t>
@@ -2308,18 +2311,15 @@
   <si>
     <t>北中心各位同事：1.停电地点：北京市大兴区黄村镇、北京印刷学院、中央广播电视大学、北京龙熙房地产开发有限责任公司、北京君健德坤投资有限公司、北京世纪联华清城超市有限公司、北京永源兴置业有限公司单位；2.停电时间：time；3.停电原因：10kV兴华一路线路故障；4.预计恢复时间：time。如有以上地点客户反映停电报修情况或投诉，请客服人员代为解释，谢谢！</t>
   </si>
+  <si>
+    <t>芦城</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -2338,164 +2338,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2514,194 +2368,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2724,251 +2392,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3022,71 +2448,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FFCC00"/>
-      <color rgb="00FFFFFF"/>
-      <color rgb="00339966"/>
-      <color rgb="00FFFF00"/>
-      <color rgb="00FF0000"/>
-      <color rgb="00000000"/>
+      <color rgb="FFFFCC00"/>
+      <color rgb="FFFFFFFF"/>
+      <color rgb="FF339966"/>
+      <color rgb="FFFFFF00"/>
+      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3344,28 +2726,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E361"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="87.6416666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="87.625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3379,7 +2761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="85.5" spans="1:4">
+    <row r="2" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3393,7 +2775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="71.25" spans="1:4">
+    <row r="3" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3407,7 +2789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="99.75" spans="1:4">
+    <row r="4" spans="1:4" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3421,7 +2803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="99.75" spans="1:4">
+    <row r="5" spans="1:4" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3435,7 +2817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="85.5" spans="1:4">
+    <row r="6" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3449,7 +2831,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" ht="85.5" spans="1:4">
+    <row r="7" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3463,7 +2845,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" ht="99.75" spans="1:4">
+    <row r="8" spans="1:4" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3477,7 +2859,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" ht="71.25" spans="1:4">
+    <row r="9" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3491,7 +2873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" ht="85.5" spans="1:4">
+    <row r="10" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3505,7 +2887,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" ht="99.75" spans="1:4">
+    <row r="11" spans="1:4" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3519,7 +2901,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" ht="114" spans="1:4">
+    <row r="12" spans="1:4" ht="114" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3533,7 +2915,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" ht="99.75" spans="1:4">
+    <row r="13" spans="1:4" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3547,7 +2929,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" ht="71.25" spans="1:4">
+    <row r="14" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -3561,7 +2943,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" ht="71.25" spans="1:4">
+    <row r="15" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3575,7 +2957,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" ht="57" spans="1:4">
+    <row r="16" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -3589,7 +2971,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" ht="71.25" spans="1:4">
+    <row r="17" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -3603,7 +2985,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" ht="71.25" spans="1:4">
+    <row r="18" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -3617,7 +2999,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" ht="57" spans="1:4">
+    <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -3631,7 +3013,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" ht="71.25" spans="1:4">
+    <row r="20" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -3645,7 +3027,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" ht="57" spans="1:4">
+    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -3659,7 +3041,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" ht="71.25" spans="1:4">
+    <row r="22" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -3673,7 +3055,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" ht="42.75" spans="1:4">
+    <row r="23" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -3687,7 +3069,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" ht="71.25" spans="1:4">
+    <row r="24" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -3701,7 +3083,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" ht="42.75" spans="1:4">
+    <row r="25" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -3715,7 +3097,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" ht="57" spans="1:4">
+    <row r="26" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -3729,7 +3111,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" ht="57" spans="1:4">
+    <row r="27" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -3743,7 +3125,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" ht="71.25" spans="1:4">
+    <row r="28" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -3757,7 +3139,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" ht="71.25" spans="1:4">
+    <row r="29" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -3771,7 +3153,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" ht="85.5" spans="1:4">
+    <row r="30" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3785,7 +3167,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" ht="57" spans="1:4">
+    <row r="31" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3799,7 +3181,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" ht="71.25" spans="1:4">
+    <row r="32" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3813,7 +3195,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" ht="99.75" spans="1:4">
+    <row r="33" spans="1:4" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -3827,7 +3209,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" ht="85.5" spans="1:4">
+    <row r="34" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3841,7 +3223,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" ht="42.75" spans="1:4">
+    <row r="35" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3855,7 +3237,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" ht="42.75" spans="1:4">
+    <row r="36" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3869,7 +3251,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" ht="99.75" spans="1:4">
+    <row r="37" spans="1:4" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3883,7 +3265,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" ht="71.25" spans="1:4">
+    <row r="38" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3897,7 +3279,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" ht="57" spans="1:4">
+    <row r="39" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3911,7 +3293,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" ht="57" spans="1:4">
+    <row r="40" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3925,7 +3307,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" ht="71.25" spans="1:4">
+    <row r="41" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3939,7 +3321,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" ht="71.25" spans="1:4">
+    <row r="42" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3953,7 +3335,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" ht="85.5" spans="1:4">
+    <row r="43" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3967,7 +3349,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" ht="71.25" spans="1:4">
+    <row r="44" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3981,7 +3363,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" ht="99.75" spans="1:4">
+    <row r="45" spans="1:4" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3995,7 +3377,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" ht="57" spans="1:4">
+    <row r="46" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -4009,7 +3391,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" ht="99.75" spans="1:4">
+    <row r="47" spans="1:4" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -4023,7 +3405,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" ht="71.25" spans="1:4">
+    <row r="48" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -4037,7 +3419,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" ht="71.25" spans="1:4">
+    <row r="49" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -4051,7 +3433,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" ht="114" spans="1:4">
+    <row r="50" spans="1:4" ht="114" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -4065,7 +3447,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" ht="85.5" spans="1:4">
+    <row r="51" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -4079,7 +3461,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" ht="57" spans="1:4">
+    <row r="52" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -4093,7 +3475,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="53" ht="71.25" spans="1:4">
+    <row r="53" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -4107,7 +3489,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" ht="57" spans="1:4">
+    <row r="54" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -4121,7 +3503,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" ht="57" spans="1:4">
+    <row r="55" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -4135,7 +3517,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" ht="57" spans="1:4">
+    <row r="56" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -4149,7 +3531,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" ht="57" spans="1:4">
+    <row r="57" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -4163,7 +3545,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="58" ht="42.75" spans="1:4">
+    <row r="58" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -4177,7 +3559,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="59" ht="57" spans="1:4">
+    <row r="59" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -4191,7 +3573,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="60" ht="42.75" spans="1:4">
+    <row r="60" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -4205,7 +3587,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="61" ht="42.75" spans="1:4">
+    <row r="61" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -4219,7 +3601,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="62" ht="42.75" spans="1:4">
+    <row r="62" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -4233,7 +3615,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="63" ht="42.75" spans="1:4">
+    <row r="63" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -4247,7 +3629,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" ht="42.75" spans="1:4">
+    <row r="64" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -4261,7 +3643,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" ht="42.75" spans="1:4">
+    <row r="65" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -4275,7 +3657,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="66" ht="42.75" spans="1:4">
+    <row r="66" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -4289,7 +3671,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="67" ht="42.75" spans="1:4">
+    <row r="67" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -4303,7 +3685,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="68" ht="57" spans="1:4">
+    <row r="68" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -4317,7 +3699,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="69" ht="57" spans="1:4">
+    <row r="69" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -4331,7 +3713,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="70" ht="42.75" spans="1:4">
+    <row r="70" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -4345,7 +3727,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="71" ht="42.75" spans="1:4">
+    <row r="71" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -4359,7 +3741,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="72" ht="57" spans="1:4">
+    <row r="72" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -4373,7 +3755,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="73" ht="42.75" spans="1:4">
+    <row r="73" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -4387,7 +3769,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" ht="57" spans="1:4">
+    <row r="74" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -4401,7 +3783,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="75" ht="42.75" spans="1:4">
+    <row r="75" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -4415,7 +3797,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="76" ht="42.75" spans="1:4">
+    <row r="76" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -4429,7 +3811,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="77" ht="42.75" spans="1:4">
+    <row r="77" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -4443,7 +3825,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="78" ht="57" spans="1:4">
+    <row r="78" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -4457,7 +3839,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="79" ht="57" spans="1:4">
+    <row r="79" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -4471,7 +3853,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="80" ht="57" spans="1:4">
+    <row r="80" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -4485,7 +3867,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="81" ht="42.75" spans="1:4">
+    <row r="81" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -4499,7 +3881,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="82" ht="42.75" spans="1:4">
+    <row r="82" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -4513,7 +3895,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="83" ht="42.75" spans="1:4">
+    <row r="83" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -4527,7 +3909,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="84" ht="42.75" spans="1:4">
+    <row r="84" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -4541,7 +3923,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="85" ht="42.75" spans="1:4">
+    <row r="85" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -4555,7 +3937,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="86" ht="71.25" spans="1:4">
+    <row r="86" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -4569,7 +3951,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" ht="85.5" spans="1:4">
+    <row r="87" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -4583,7 +3965,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="88" ht="99.75" spans="1:4">
+    <row r="88" spans="1:4" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -4597,7 +3979,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" ht="71.25" spans="1:4">
+    <row r="89" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -4611,7 +3993,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="90" ht="99.75" spans="1:4">
+    <row r="90" spans="1:4" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -4625,7 +4007,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="91" ht="57" spans="1:4">
+    <row r="91" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -4639,7 +4021,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="92" ht="57" spans="1:4">
+    <row r="92" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -4653,7 +4035,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="93" ht="71.25" spans="1:4">
+    <row r="93" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -4667,7 +4049,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="94" ht="71.25" spans="1:4">
+    <row r="94" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -4681,7 +4063,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="95" ht="57" spans="1:4">
+    <row r="95" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -4695,7 +4077,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="96" ht="57" spans="1:4">
+    <row r="96" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -4709,7 +4091,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="97" ht="71.25" spans="1:4">
+    <row r="97" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -4723,7 +4105,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="98" ht="71.25" spans="1:4">
+    <row r="98" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -4737,7 +4119,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="99" ht="71.25" spans="1:4">
+    <row r="99" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -4751,7 +4133,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="100" ht="57" spans="1:4">
+    <row r="100" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -4765,7 +4147,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="101" ht="71.25" spans="1:4">
+    <row r="101" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -4779,7 +4161,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="102" ht="85.5" spans="1:4">
+    <row r="102" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -4793,7 +4175,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="103" ht="57" spans="1:4">
+    <row r="103" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -4807,7 +4189,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="104" ht="71.25" spans="1:4">
+    <row r="104" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -4821,7 +4203,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="105" ht="57" spans="1:4">
+    <row r="105" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -4835,7 +4217,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="106" ht="71.25" spans="1:4">
+    <row r="106" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -4849,7 +4231,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="107" ht="57" spans="1:4">
+    <row r="107" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -4863,7 +4245,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="108" ht="85.5" spans="1:4">
+    <row r="108" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -4877,7 +4259,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="109" ht="57" spans="1:4">
+    <row r="109" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -4891,7 +4273,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="110" ht="57" spans="1:4">
+    <row r="110" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -4905,7 +4287,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="111" ht="99.75" spans="1:4">
+    <row r="111" spans="1:4" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -4919,7 +4301,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="112" ht="114" spans="1:4">
+    <row r="112" spans="1:4" ht="114" x14ac:dyDescent="0.15">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -4933,7 +4315,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="113" ht="42.75" spans="1:4">
+    <row r="113" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -4947,7 +4329,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="114" ht="57" spans="1:4">
+    <row r="114" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -4961,7 +4343,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="115" ht="71.25" spans="1:4">
+    <row r="115" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -4975,7 +4357,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="116" ht="85.5" spans="1:4">
+    <row r="116" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -4989,7 +4371,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="117" ht="57" spans="1:4">
+    <row r="117" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -5003,7 +4385,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="118" ht="71.25" spans="1:4">
+    <row r="118" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -5017,7 +4399,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="119" ht="85.5" spans="1:4">
+    <row r="119" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -5031,7 +4413,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="120" ht="42.75" spans="1:4">
+    <row r="120" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -5045,7 +4427,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="121" ht="57" spans="1:4">
+    <row r="121" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -5059,7 +4441,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="122" ht="42.75" spans="1:4">
+    <row r="122" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -5073,7 +4455,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="123" ht="71.25" spans="1:4">
+    <row r="123" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -5087,7 +4469,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="124" ht="57" spans="1:4">
+    <row r="124" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -5101,7 +4483,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="125" ht="42.75" spans="1:4">
+    <row r="125" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -5115,7 +4497,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="126" ht="42.75" spans="1:4">
+    <row r="126" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -5129,7 +4511,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="127" ht="42.75" spans="1:4">
+    <row r="127" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -5143,7 +4525,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="128" ht="42.75" spans="1:4">
+    <row r="128" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -5157,7 +4539,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="129" ht="57" spans="1:4">
+    <row r="129" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -5171,7 +4553,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="130" ht="71.25" spans="1:4">
+    <row r="130" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -5185,7 +4567,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="131" ht="57" spans="1:4">
+    <row r="131" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -5199,7 +4581,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="132" ht="57" spans="1:4">
+    <row r="132" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -5213,7 +4595,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="133" ht="57" spans="1:4">
+    <row r="133" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -5227,7 +4609,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="134" ht="42.75" spans="1:4">
+    <row r="134" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -5241,7 +4623,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="135" ht="57" spans="1:4">
+    <row r="135" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -5255,7 +4637,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="136" ht="71.25" spans="1:4">
+    <row r="136" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -5269,7 +4651,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="137" ht="42.75" spans="1:4">
+    <row r="137" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -5283,7 +4665,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="138" ht="42.75" spans="1:4">
+    <row r="138" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -5297,7 +4679,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="139" ht="42.75" spans="1:4">
+    <row r="139" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -5311,7 +4693,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="140" ht="57" spans="1:4">
+    <row r="140" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -5325,7 +4707,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="141" ht="57" spans="1:4">
+    <row r="141" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -5339,7 +4721,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="142" ht="42.75" spans="1:4">
+    <row r="142" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -5353,7 +4735,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="143" ht="42.75" spans="1:4">
+    <row r="143" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -5367,7 +4749,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="144" ht="71.25" spans="1:4">
+    <row r="144" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -5381,7 +4763,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="145" ht="42.75" spans="1:4">
+    <row r="145" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -5395,7 +4777,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="146" ht="42.75" spans="1:4">
+    <row r="146" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -5409,7 +4791,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="147" ht="71.25" spans="1:4">
+    <row r="147" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -5423,7 +4805,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="148" ht="71.25" spans="1:4">
+    <row r="148" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -5437,7 +4819,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="149" ht="57" spans="1:4">
+    <row r="149" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -5451,7 +4833,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="150" ht="85.5" spans="1:4">
+    <row r="150" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -5465,7 +4847,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="151" ht="57" spans="1:4">
+    <row r="151" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -5479,7 +4861,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="152" ht="42.75" spans="1:4">
+    <row r="152" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -5493,7 +4875,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="153" ht="57" spans="1:4">
+    <row r="153" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -5507,7 +4889,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="154" ht="57" spans="1:4">
+    <row r="154" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -5521,7 +4903,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="155" ht="85.5" spans="1:4">
+    <row r="155" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -5535,7 +4917,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="156" ht="57" spans="1:4">
+    <row r="156" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -5549,7 +4931,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="157" ht="42.75" spans="1:4">
+    <row r="157" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -5563,7 +4945,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="158" ht="42.75" spans="1:4">
+    <row r="158" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -5577,7 +4959,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="159" ht="42.75" spans="1:4">
+    <row r="159" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -5591,7 +4973,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="160" ht="42.75" spans="1:4">
+    <row r="160" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -5605,7 +4987,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="161" ht="42.75" spans="1:4">
+    <row r="161" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -5619,7 +5001,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="162" ht="42.75" spans="1:4">
+    <row r="162" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -5633,7 +5015,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="163" ht="42.75" spans="1:4">
+    <row r="163" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -5647,7 +5029,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="164" ht="42.75" spans="1:4">
+    <row r="164" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -5661,7 +5043,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="165" ht="42.75" spans="1:4">
+    <row r="165" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -5675,7 +5057,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="166" ht="42.75" spans="1:4">
+    <row r="166" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -5689,7 +5071,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="167" ht="42.75" spans="1:4">
+    <row r="167" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -5703,7 +5085,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="168" ht="42.75" spans="1:4">
+    <row r="168" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -5717,7 +5099,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="169" ht="57" spans="1:4">
+    <row r="169" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -5731,7 +5113,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="170" ht="57" spans="1:4">
+    <row r="170" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -5745,7 +5127,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="171" ht="42.75" spans="1:4">
+    <row r="171" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -5759,7 +5141,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="172" ht="42.75" spans="1:4">
+    <row r="172" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -5773,7 +5155,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="173" ht="57" spans="1:4">
+    <row r="173" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -5787,7 +5169,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="174" ht="57" spans="1:4">
+    <row r="174" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -5801,7 +5183,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="175" ht="114" spans="1:4">
+    <row r="175" spans="1:4" ht="114" x14ac:dyDescent="0.15">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -5815,7 +5197,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="176" ht="42.75" spans="1:4">
+    <row r="176" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -5829,7 +5211,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="177" ht="114" spans="1:4">
+    <row r="177" spans="1:4" ht="114" x14ac:dyDescent="0.15">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -5843,7 +5225,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="178" ht="71.25" spans="1:4">
+    <row r="178" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -5857,7 +5239,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="179" ht="99.75" spans="1:4">
+    <row r="179" spans="1:4" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A179" s="3">
         <v>178</v>
       </c>
@@ -5871,7 +5253,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="180" ht="85.5" spans="1:4">
+    <row r="180" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A180" s="3">
         <v>179</v>
       </c>
@@ -5885,7 +5267,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="181" ht="71.25" spans="1:4">
+    <row r="181" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A181" s="3">
         <v>180</v>
       </c>
@@ -5899,7 +5281,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="182" ht="85.5" spans="1:4">
+    <row r="182" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A182" s="3">
         <v>181</v>
       </c>
@@ -5913,7 +5295,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="183" ht="71.25" spans="1:4">
+    <row r="183" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A183" s="3">
         <v>182</v>
       </c>
@@ -5927,2567 +5309,2562 @@
         <v>368</v>
       </c>
     </row>
-    <row r="184" ht="156.75" spans="1:4">
+    <row r="184" spans="1:4" ht="156.75" x14ac:dyDescent="0.15">
       <c r="A184" s="3">
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="C184" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="D184" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="D184" s="4" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="185" ht="156.75" spans="1:4">
+    </row>
+    <row r="185" spans="1:4" ht="156.75" x14ac:dyDescent="0.15">
       <c r="A185" s="3">
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>369</v>
+        <v>728</v>
       </c>
       <c r="C185" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D185" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D185" s="4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="186" ht="99.75" spans="1:4">
+    </row>
+    <row r="186" spans="1:4" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A186" s="3">
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>369</v>
+        <v>728</v>
       </c>
       <c r="C186" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D186" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="D186" s="4" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="187" ht="142.5" spans="1:4">
+    </row>
+    <row r="187" spans="1:4" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A187" s="3">
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>369</v>
+        <v>728</v>
       </c>
       <c r="C187" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D187" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="D187" s="4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="188" ht="199.5" spans="1:4">
+    </row>
+    <row r="188" spans="1:4" ht="199.5" x14ac:dyDescent="0.15">
       <c r="A188" s="3">
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>369</v>
+        <v>728</v>
       </c>
       <c r="C188" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D188" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="D188" s="4" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="189" ht="114" spans="1:4">
+    </row>
+    <row r="189" spans="1:4" ht="114" x14ac:dyDescent="0.15">
       <c r="A189" s="3">
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>369</v>
+        <v>728</v>
       </c>
       <c r="C189" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D189" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="D189" s="4" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="190" ht="156.75" spans="1:4">
+    </row>
+    <row r="190" spans="1:4" ht="156.75" x14ac:dyDescent="0.15">
       <c r="A190" s="3">
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>369</v>
+        <v>728</v>
       </c>
       <c r="C190" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D190" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="D190" s="4" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="191" ht="128.25" spans="1:4">
+    </row>
+    <row r="191" spans="1:4" ht="128.25" x14ac:dyDescent="0.15">
       <c r="A191" s="3">
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>369</v>
+        <v>728</v>
       </c>
       <c r="C191" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D191" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="D191" s="4" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="192" ht="114" spans="1:4">
+    </row>
+    <row r="192" spans="1:4" ht="114" x14ac:dyDescent="0.15">
       <c r="A192" s="3">
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>369</v>
+        <v>728</v>
       </c>
       <c r="C192" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D192" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="D192" s="4" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="193" ht="128.25" spans="1:4">
+    </row>
+    <row r="193" spans="1:4" ht="128.25" x14ac:dyDescent="0.15">
       <c r="A193" s="3">
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>369</v>
+        <v>728</v>
       </c>
       <c r="C193" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D193" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="D193" s="4" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="194" ht="99.75" spans="1:4">
+    </row>
+    <row r="194" spans="1:4" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A194" s="3">
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>369</v>
+        <v>728</v>
       </c>
       <c r="C194" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D194" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="D194" s="4" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="195" ht="114" spans="1:4">
+    </row>
+    <row r="195" spans="1:4" ht="114" x14ac:dyDescent="0.15">
       <c r="A195" s="3">
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>369</v>
+        <v>728</v>
       </c>
       <c r="C195" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D195" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="D195" s="4" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="196" ht="128.25" spans="1:4">
+    </row>
+    <row r="196" spans="1:4" ht="128.25" x14ac:dyDescent="0.15">
       <c r="A196" s="3">
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>369</v>
+        <v>728</v>
       </c>
       <c r="C196" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D196" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="D196" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="197" ht="99.75" spans="1:4">
+    </row>
+    <row r="197" spans="1:4" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A197" s="3">
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>369</v>
+        <v>728</v>
       </c>
       <c r="C197" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D197" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="D197" s="4" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="198" ht="142.5" spans="1:4">
+    </row>
+    <row r="198" spans="1:4" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A198" s="3">
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>369</v>
+        <v>728</v>
       </c>
       <c r="C198" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D198" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="D198" s="4" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="199" ht="128.25" spans="1:4">
+    </row>
+    <row r="199" spans="1:4" ht="128.25" x14ac:dyDescent="0.15">
       <c r="A199" s="3">
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>369</v>
+        <v>728</v>
       </c>
       <c r="C199" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D199" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="D199" s="4" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="200" ht="142.5" spans="1:4">
+    </row>
+    <row r="200" spans="1:4" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A200" s="3">
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>369</v>
+        <v>728</v>
       </c>
       <c r="C200" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D200" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="D200" s="4" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="201" ht="114" spans="1:4">
+    </row>
+    <row r="201" spans="1:4" ht="114" x14ac:dyDescent="0.15">
       <c r="A201" s="3">
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>369</v>
+        <v>728</v>
       </c>
       <c r="C201" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D201" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="D201" s="4" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="202" ht="156.75" spans="1:4">
+    </row>
+    <row r="202" spans="1:4" ht="156.75" x14ac:dyDescent="0.15">
       <c r="A202" s="3">
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>369</v>
+        <v>728</v>
       </c>
       <c r="C202" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D202" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="D202" s="4" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="203" ht="171" spans="1:4">
+    </row>
+    <row r="203" spans="1:4" ht="171" x14ac:dyDescent="0.15">
       <c r="A203" s="3">
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>369</v>
+        <v>728</v>
       </c>
       <c r="C203" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D203" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="D203" s="4" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="204" ht="128.25" spans="1:4">
+    </row>
+    <row r="204" spans="1:4" ht="128.25" x14ac:dyDescent="0.15">
       <c r="A204" s="3">
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>369</v>
+        <v>728</v>
       </c>
       <c r="C204" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D204" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="D204" s="4" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="205" ht="156.75" spans="1:4">
+    </row>
+    <row r="205" spans="1:4" ht="156.75" x14ac:dyDescent="0.15">
       <c r="A205" s="3">
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>369</v>
+        <v>728</v>
       </c>
       <c r="C205" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D205" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="D205" s="4" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="206" ht="114" spans="1:4">
+    </row>
+    <row r="206" spans="1:4" ht="114" x14ac:dyDescent="0.15">
       <c r="A206" s="3">
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>369</v>
+        <v>728</v>
       </c>
       <c r="C206" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D206" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="D206" s="4" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="207" ht="85.5" spans="1:4">
+    </row>
+    <row r="207" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A207" s="3">
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>369</v>
+        <v>728</v>
       </c>
       <c r="C207" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D207" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="D207" s="4" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="208" ht="85.5" spans="1:4">
+    </row>
+    <row r="208" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A208" s="3">
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>369</v>
+        <v>728</v>
       </c>
       <c r="C208" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D208" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="D208" s="4" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="209" ht="57" spans="1:4">
+    </row>
+    <row r="209" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A209" s="3">
         <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C209" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="C209" s="4" t="s">
+      <c r="D209" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="D209" s="7" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="210" ht="114" spans="1:4">
+    </row>
+    <row r="210" spans="1:4" ht="114" x14ac:dyDescent="0.15">
       <c r="A210" s="3">
         <v>209</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C210" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D210" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="D210" s="7" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="211" ht="57" spans="1:4">
+    </row>
+    <row r="211" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A211" s="3">
         <v>210</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="212" ht="42.75" spans="1:4">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A212" s="3">
         <v>211</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C212" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D212" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="D212" s="7" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="213" ht="57" spans="1:4">
+    </row>
+    <row r="213" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A213" s="3">
         <v>212</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C213" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="D213" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="D213" s="7" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="214" ht="85.5" spans="1:4">
+    </row>
+    <row r="214" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A214" s="3">
         <v>213</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C214" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D214" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="D214" s="7" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="215" ht="57" spans="1:4">
+    </row>
+    <row r="215" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A215" s="3">
         <v>214</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C215" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D215" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="D215" s="7" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="216" ht="99.75" spans="1:4">
+    </row>
+    <row r="216" spans="1:4" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A216" s="3">
         <v>215</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C216" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D216" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="D216" s="7" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="217" ht="71.25" spans="1:4">
+    </row>
+    <row r="217" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A217" s="3">
         <v>216</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C217" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D217" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="D217" s="7" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="218" ht="57" spans="1:4">
+    </row>
+    <row r="218" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A218" s="3">
         <v>217</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C218" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D218" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="D218" s="7" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="219" ht="57" spans="1:4">
+    </row>
+    <row r="219" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A219" s="3">
         <v>218</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C219" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D219" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="D219" s="7" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="220" ht="114" spans="1:4">
+    </row>
+    <row r="220" spans="1:4" ht="114" x14ac:dyDescent="0.15">
       <c r="A220" s="3">
         <v>219</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C220" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="D220" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="D220" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="221" ht="42.75" spans="1:4">
+    </row>
+    <row r="221" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A221" s="3">
         <v>220</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="222" ht="57" spans="1:4">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A222" s="3">
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C222" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="D222" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="D222" s="4" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="223" ht="57" spans="1:4">
+    </row>
+    <row r="223" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A223" s="3">
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C223" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D223" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="D223" s="4" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="224" ht="71.25" spans="1:4">
+    </row>
+    <row r="224" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A224" s="3">
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C224" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D224" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="D224" s="4" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="225" ht="71.25" spans="1:4">
+    </row>
+    <row r="225" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A225" s="3">
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C225" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D225" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="D225" s="4" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="226" ht="99.75" spans="1:4">
+    </row>
+    <row r="226" spans="1:4" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A226" s="3">
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C226" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D226" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="D226" s="4" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="227" ht="71.25" spans="1:4">
+    </row>
+    <row r="227" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A227" s="3">
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C227" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D227" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="D227" s="4" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="228" ht="71.25" spans="1:4">
+    </row>
+    <row r="228" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A228" s="3">
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C228" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D228" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="D228" s="4" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="229" ht="57" spans="1:4">
+    </row>
+    <row r="229" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A229" s="3">
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C229" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D229" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="D229" s="4" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="230" ht="57" spans="1:4">
+    </row>
+    <row r="230" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A230" s="3">
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C230" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D230" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="D230" s="4" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="231" ht="57" spans="1:4">
+    </row>
+    <row r="231" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A231" s="3">
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C231" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D231" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="D231" s="4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="232" ht="85.5" spans="1:4">
+    </row>
+    <row r="232" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A232" s="3">
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C232" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="D232" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="D232" s="4" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="233" ht="57" spans="1:4">
+    </row>
+    <row r="233" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A233" s="3">
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C233" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D233" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="D233" s="4" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="234" ht="42.75" spans="1:4">
+    </row>
+    <row r="234" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A234" s="3">
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C234" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D234" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="D234" s="4" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="235" ht="42.75" spans="1:4">
+    </row>
+    <row r="235" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A235" s="3">
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C235" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D235" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="D235" s="4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="236" ht="42.75" spans="1:4">
+    </row>
+    <row r="236" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A236" s="3">
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C236" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="C236" s="3" t="s">
+      <c r="D236" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="D236" s="4" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="237" ht="57" spans="1:4">
+    </row>
+    <row r="237" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A237" s="3">
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C237" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D237" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="D237" s="4" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="238" ht="71.25" spans="1:4">
+    </row>
+    <row r="238" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A238" s="3">
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C238" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D238" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="D238" s="4" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="239" ht="57" spans="1:4">
+    </row>
+    <row r="239" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A239" s="3">
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C239" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="D239" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="D239" s="4" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="240" ht="71.25" spans="1:4">
+    </row>
+    <row r="240" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A240" s="3">
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C240" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D240" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="D240" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="241" ht="71.25" spans="1:4">
+    </row>
+    <row r="241" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A241" s="3">
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C241" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D241" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="D241" s="4" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="242" ht="57" spans="1:4">
+    </row>
+    <row r="242" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A242" s="3">
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C242" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D242" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="D242" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="243" ht="71.25" spans="1:4">
+    </row>
+    <row r="243" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A243" s="3">
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C243" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D243" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="D243" s="4" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="244" ht="71.25" spans="1:4">
+    </row>
+    <row r="244" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A244" s="3">
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C244" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="D244" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="D244" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="245" ht="99.75" spans="1:4">
+    </row>
+    <row r="245" spans="1:4" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A245" s="3">
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C245" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D245" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="D245" s="4" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="246" ht="99.75" spans="1:4">
+    </row>
+    <row r="246" spans="1:4" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A246" s="3">
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C246" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D246" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="D246" s="4" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="247" ht="85.5" spans="1:4">
+    </row>
+    <row r="247" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A247" s="3">
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C247" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D247" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="D247" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="248" ht="142.5" spans="1:4">
+    </row>
+    <row r="248" spans="1:4" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A248" s="3">
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C248" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="D248" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="D248" s="4" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="249" ht="213.75" spans="1:4">
+    </row>
+    <row r="249" spans="1:4" ht="213.75" x14ac:dyDescent="0.15">
       <c r="A249" s="3">
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C249" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D249" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="D249" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="250" ht="199.5" spans="1:4">
+    </row>
+    <row r="250" spans="1:4" ht="199.5" x14ac:dyDescent="0.15">
       <c r="A250" s="3">
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C250" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D250" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="D250" s="4" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="251" ht="171" spans="1:4">
+    </row>
+    <row r="251" spans="1:4" ht="171" x14ac:dyDescent="0.15">
       <c r="A251" s="3">
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C251" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="D251" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="D251" s="4" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="252" ht="213.75" spans="1:4">
+    </row>
+    <row r="252" spans="1:4" ht="213.75" x14ac:dyDescent="0.15">
       <c r="A252" s="3">
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C252" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D252" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="D252" s="4" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="253" ht="114" spans="1:4">
+    </row>
+    <row r="253" spans="1:4" ht="114" x14ac:dyDescent="0.15">
       <c r="A253" s="3">
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C253" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="D253" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="D253" s="4" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="254" ht="185.25" spans="1:4">
+    </row>
+    <row r="254" spans="1:4" ht="185.25" x14ac:dyDescent="0.15">
       <c r="A254" s="3">
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C254" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D254" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="D254" s="7" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="255" ht="270.75" spans="1:4">
+    </row>
+    <row r="255" spans="1:4" ht="270.75" x14ac:dyDescent="0.15">
       <c r="A255" s="3">
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C255" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D255" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="D255" s="7" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="256" ht="171" spans="1:4">
+    </row>
+    <row r="256" spans="1:4" ht="171" x14ac:dyDescent="0.15">
       <c r="A256" s="3">
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C256" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D256" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="D256" s="7" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="257" ht="156.75" spans="1:4">
+    </row>
+    <row r="257" spans="1:4" ht="156.75" x14ac:dyDescent="0.15">
       <c r="A257" s="3">
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C257" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D257" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="D257" s="7" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="258" ht="156.75" spans="1:4">
+    </row>
+    <row r="258" spans="1:4" ht="156.75" x14ac:dyDescent="0.15">
       <c r="A258" s="3">
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C258" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D258" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="D258" s="7" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="259" ht="142.5" spans="1:4">
+    </row>
+    <row r="259" spans="1:4" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A259" s="3">
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C259" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="D259" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="D259" s="7" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="260" ht="42.75" spans="1:4">
+    </row>
+    <row r="260" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A260" s="3">
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C260" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="D260" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="D260" s="7" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="261" ht="42.75" spans="1:4">
+    </row>
+    <row r="261" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A261" s="3">
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C261" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="D261" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="D261" s="7" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="262" ht="57" spans="1:4">
+    </row>
+    <row r="262" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A262" s="3">
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C262" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="D262" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="D262" s="7" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="263" ht="71.25" spans="1:4">
+    </row>
+    <row r="263" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A263" s="3">
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C263" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="D263" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="D263" s="7" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="264" ht="85.5" spans="1:4">
+    </row>
+    <row r="264" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A264" s="3">
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C264" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="D264" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="D264" s="7" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="265" ht="71.25" spans="1:4">
+    </row>
+    <row r="265" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A265" s="3">
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C265" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D265" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="D265" s="7" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="266" ht="57" spans="1:4">
+    </row>
+    <row r="266" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A266" s="3">
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C266" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="D266" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="D266" s="7" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="267" ht="71.25" spans="1:4">
+    </row>
+    <row r="267" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A267" s="3">
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C267" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="D267" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="D267" s="7" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="268" ht="71.25" spans="1:4">
+    </row>
+    <row r="268" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A268" s="3">
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C268" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="D268" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="D268" s="4" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="269" ht="71.25" spans="1:4">
+    </row>
+    <row r="269" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A269" s="3">
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C269" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="D269" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="D269" s="4" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="270" ht="57" spans="1:4">
+    </row>
+    <row r="270" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A270" s="3">
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C270" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="D270" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="D270" s="4" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="271" ht="71.25" spans="1:4">
+    </row>
+    <row r="271" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A271" s="3">
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C271" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="D271" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="D271" s="4" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="272" ht="71.25" spans="1:4">
+    </row>
+    <row r="272" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A272" s="3">
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C272" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D272" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="D272" s="4" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="273" ht="42.75" spans="1:4">
+    </row>
+    <row r="273" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A273" s="3">
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C273" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D273" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="D273" s="4" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="274" ht="57" spans="1:4">
+    </row>
+    <row r="274" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A274" s="3">
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C274" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="D274" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="D274" s="4" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="275" ht="71.25" spans="1:4">
+    </row>
+    <row r="275" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A275" s="3">
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C275" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D275" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="D275" s="4" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="276" ht="71.25" spans="1:4">
+    </row>
+    <row r="276" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A276" s="3">
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C276" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D276" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="D276" s="4" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="277" ht="57" spans="1:4">
+    </row>
+    <row r="277" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A277" s="3">
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C277" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D277" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="D277" s="4" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="278" ht="71.25" spans="1:4">
+    </row>
+    <row r="278" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A278" s="3">
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C278" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="D278" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="D278" s="4" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="279" ht="57" spans="1:4">
+    </row>
+    <row r="279" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A279" s="3">
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C279" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="D279" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="D279" s="4" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="280" ht="57" spans="1:4">
+    </row>
+    <row r="280" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A280" s="3">
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C280" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D280" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="D280" s="4" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="281" ht="71.25" spans="1:4">
+    </row>
+    <row r="281" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A281" s="3">
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C281" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D281" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="D281" s="4" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="282" ht="99.75" spans="1:4">
+    </row>
+    <row r="282" spans="1:4" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A282" s="3">
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C282" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D282" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="D282" s="4" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="283" ht="57" spans="1:4">
+    </row>
+    <row r="283" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A283" s="3">
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C283" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D283" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="D283" s="4" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="284" ht="42.75" spans="1:4">
+    </row>
+    <row r="284" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A284" s="3">
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C284" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="D284" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="D284" s="4" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="285" ht="85.5" spans="1:4">
+    </row>
+    <row r="285" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A285" s="3">
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C285" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="D285" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="D285" s="4" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="286" ht="85.5" spans="1:4">
+    </row>
+    <row r="286" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A286" s="3">
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C286" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D286" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="D286" s="4" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="287" ht="57" spans="1:4">
+    </row>
+    <row r="287" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A287" s="3">
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C287" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="D287" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="D287" s="4" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="288" ht="57" spans="1:4">
+    </row>
+    <row r="288" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A288" s="3">
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C288" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="C288" s="6" t="s">
+      <c r="D288" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="D288" s="8" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="289" ht="42.75" spans="1:4">
+    </row>
+    <row r="289" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A289" s="3">
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C289" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="D289" s="8" t="s">
         <v>584</v>
       </c>
-      <c r="D289" s="8" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="290" ht="42.75" spans="1:4">
+    </row>
+    <row r="290" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A290" s="3">
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C290" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="D290" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="D290" s="8" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="291" ht="71.25" spans="1:4">
+    </row>
+    <row r="291" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A291" s="3">
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D291" s="8" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="292" ht="85.5" spans="1:4">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A292" s="3">
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C292" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="D292" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="D292" s="8" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="293" ht="185.25" spans="1:4">
+    </row>
+    <row r="293" spans="1:4" ht="185.25" x14ac:dyDescent="0.15">
       <c r="A293" s="3">
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C293" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="D293" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="D293" s="8" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="294" ht="57" spans="1:4">
+    </row>
+    <row r="294" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A294" s="3">
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C294" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="D294" s="8" t="s">
         <v>593</v>
       </c>
-      <c r="D294" s="8" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="295" ht="57" spans="1:4">
+    </row>
+    <row r="295" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A295" s="3">
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C295" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="D295" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="D295" s="8" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="296" ht="85.5" spans="1:4">
+    </row>
+    <row r="296" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A296" s="3">
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C296" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="D296" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="D296" s="8" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="297" ht="71.25" spans="1:4">
+    </row>
+    <row r="297" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A297" s="3">
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C297" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="D297" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="D297" s="8" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="298" ht="57" spans="1:4">
+    </row>
+    <row r="298" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A298" s="3">
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C298" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="D298" s="8" t="s">
         <v>601</v>
       </c>
-      <c r="D298" s="8" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="299" ht="85.5" spans="1:4">
+    </row>
+    <row r="299" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A299" s="3">
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C299" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="D299" s="8" t="s">
         <v>603</v>
       </c>
-      <c r="D299" s="8" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="300" ht="85.5" spans="1:4">
+    </row>
+    <row r="300" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A300" s="3">
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C300" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="D300" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="D300" s="8" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="301" ht="114" spans="1:4">
+    </row>
+    <row r="301" spans="1:4" ht="114" x14ac:dyDescent="0.15">
       <c r="A301" s="3">
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C301" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="D301" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="D301" s="8" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="302" ht="71.25" spans="1:4">
+    </row>
+    <row r="302" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A302" s="3">
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C302" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="D302" s="8" t="s">
         <v>609</v>
       </c>
-      <c r="D302" s="8" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="303" ht="57" spans="1:4">
+    </row>
+    <row r="303" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A303" s="3">
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C303" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="D303" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="D303" s="8" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="304" ht="42.75" spans="1:4">
+    </row>
+    <row r="304" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A304" s="3">
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C304" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="D304" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="D304" s="8" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="305" ht="42.75" spans="1:4">
+    </row>
+    <row r="305" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A305" s="3">
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C305" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="D305" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="D305" s="8" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="306" ht="114" spans="1:4">
+    </row>
+    <row r="306" spans="1:5" ht="114" x14ac:dyDescent="0.15">
       <c r="A306" s="3">
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C306" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="D306" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="D306" s="8" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="307" ht="71.25" spans="1:4">
+    </row>
+    <row r="307" spans="1:5" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A307" s="3">
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C307" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="D307" s="8" t="s">
         <v>619</v>
       </c>
-      <c r="D307" s="8" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="308" ht="42.75" spans="1:4">
+    </row>
+    <row r="308" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A308" s="3">
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C308" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="D308" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="D308" s="8" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="309" ht="57" spans="1:4">
+    </row>
+    <row r="309" spans="1:5" ht="57" x14ac:dyDescent="0.15">
       <c r="A309" s="3">
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C309" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="D309" s="8" t="s">
         <v>623</v>
       </c>
-      <c r="D309" s="8" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="310" s="1" customFormat="1" ht="128.25" spans="1:5">
+    </row>
+    <row r="310" spans="1:5" ht="128.25" x14ac:dyDescent="0.15">
       <c r="A310" s="3">
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C310" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="C310" s="3" t="s">
+      <c r="D310" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="D310" s="4" t="s">
-        <v>627</v>
-      </c>
       <c r="E310" s="9"/>
     </row>
-    <row r="311" s="1" customFormat="1" ht="156.75" spans="1:5">
+    <row r="311" spans="1:5" ht="156.75" x14ac:dyDescent="0.15">
       <c r="A311" s="3">
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C311" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="D311" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="D311" s="4" t="s">
-        <v>629</v>
-      </c>
       <c r="E311" s="9"/>
     </row>
-    <row r="312" s="1" customFormat="1" ht="71.25" spans="1:5">
+    <row r="312" spans="1:5" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A312" s="3">
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C312" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D312" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="D312" s="4" t="s">
-        <v>631</v>
-      </c>
       <c r="E312" s="9"/>
     </row>
-    <row r="313" s="1" customFormat="1" ht="313.5" spans="1:5">
+    <row r="313" spans="1:5" ht="313.5" x14ac:dyDescent="0.15">
       <c r="A313" s="3">
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C313" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="D313" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="D313" s="4" t="s">
-        <v>633</v>
-      </c>
       <c r="E313" s="9"/>
     </row>
-    <row r="314" s="1" customFormat="1" ht="299.25" spans="1:5">
+    <row r="314" spans="1:5" ht="299.25" x14ac:dyDescent="0.15">
       <c r="A314" s="3">
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C314" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="D314" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="D314" s="4" t="s">
-        <v>635</v>
-      </c>
       <c r="E314" s="9"/>
     </row>
-    <row r="315" s="1" customFormat="1" ht="156.75" spans="1:5">
+    <row r="315" spans="1:5" ht="156.75" x14ac:dyDescent="0.15">
       <c r="A315" s="3">
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C315" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="D315" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="D315" s="4" t="s">
-        <v>637</v>
-      </c>
       <c r="E315" s="9"/>
     </row>
-    <row r="316" s="1" customFormat="1" ht="171" spans="1:5">
+    <row r="316" spans="1:5" ht="171" x14ac:dyDescent="0.15">
       <c r="A316" s="3">
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C316" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="D316" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="D316" s="4" t="s">
-        <v>639</v>
-      </c>
       <c r="E316" s="9"/>
     </row>
-    <row r="317" s="1" customFormat="1" ht="185.25" spans="1:5">
+    <row r="317" spans="1:5" ht="185.25" x14ac:dyDescent="0.15">
       <c r="A317" s="3">
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C317" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="D317" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="D317" s="4" t="s">
-        <v>641</v>
-      </c>
       <c r="E317" s="9"/>
     </row>
-    <row r="318" s="1" customFormat="1" ht="213.75" spans="1:5">
+    <row r="318" spans="1:5" ht="213.75" x14ac:dyDescent="0.15">
       <c r="A318" s="3">
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C318" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="D318" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="D318" s="4" t="s">
-        <v>643</v>
-      </c>
       <c r="E318" s="9"/>
     </row>
-    <row r="319" s="1" customFormat="1" ht="128.25" spans="1:5">
+    <row r="319" spans="1:5" ht="128.25" x14ac:dyDescent="0.15">
       <c r="A319" s="3">
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>175</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E319" s="9"/>
     </row>
-    <row r="320" s="1" customFormat="1" ht="156.75" spans="1:5">
+    <row r="320" spans="1:5" ht="156.75" x14ac:dyDescent="0.15">
       <c r="A320" s="3">
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C320" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="D320" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="D320" s="4" t="s">
-        <v>646</v>
-      </c>
       <c r="E320" s="9"/>
     </row>
-    <row r="321" s="1" customFormat="1" ht="99.75" spans="1:5">
+    <row r="321" spans="1:5" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A321" s="3">
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E321" s="9"/>
     </row>
-    <row r="322" s="1" customFormat="1" ht="185.25" spans="1:5">
+    <row r="322" spans="1:5" ht="185.25" x14ac:dyDescent="0.15">
       <c r="A322" s="3">
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C322" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="D322" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="D322" s="4" t="s">
-        <v>649</v>
-      </c>
       <c r="E322" s="9"/>
     </row>
-    <row r="323" s="1" customFormat="1" ht="199.5" spans="1:5">
+    <row r="323" spans="1:5" ht="199.5" x14ac:dyDescent="0.15">
       <c r="A323" s="3">
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C323" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="D323" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="D323" s="4" t="s">
-        <v>651</v>
-      </c>
       <c r="E323" s="9"/>
     </row>
-    <row r="324" s="1" customFormat="1" ht="185.25" spans="1:5">
+    <row r="324" spans="1:5" ht="185.25" x14ac:dyDescent="0.15">
       <c r="A324" s="3">
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C324" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="D324" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="D324" s="4" t="s">
-        <v>653</v>
-      </c>
       <c r="E324" s="9"/>
     </row>
-    <row r="325" s="1" customFormat="1" ht="57" spans="1:5">
+    <row r="325" spans="1:5" ht="57" x14ac:dyDescent="0.15">
       <c r="A325" s="3">
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C325" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D325" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="D325" s="4" t="s">
-        <v>655</v>
-      </c>
       <c r="E325" s="9"/>
     </row>
-    <row r="326" s="1" customFormat="1" ht="42.75" spans="1:5">
+    <row r="326" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A326" s="3">
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C326" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D326" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="D326" s="4" t="s">
-        <v>657</v>
-      </c>
       <c r="E326" s="9"/>
     </row>
-    <row r="327" s="1" customFormat="1" ht="57" spans="1:5">
+    <row r="327" spans="1:5" ht="57" x14ac:dyDescent="0.15">
       <c r="A327" s="3">
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C327" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="D327" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="D327" s="4" t="s">
-        <v>659</v>
-      </c>
       <c r="E327" s="9"/>
     </row>
-    <row r="328" s="1" customFormat="1" ht="57" spans="1:5">
+    <row r="328" spans="1:5" ht="57" x14ac:dyDescent="0.15">
       <c r="A328" s="3">
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C328" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="D328" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="D328" s="4" t="s">
-        <v>661</v>
-      </c>
       <c r="E328" s="9"/>
     </row>
-    <row r="329" s="1" customFormat="1" ht="57" spans="1:5">
+    <row r="329" spans="1:5" ht="57" x14ac:dyDescent="0.15">
       <c r="A329" s="3">
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C329" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="D329" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="D329" s="4" t="s">
-        <v>663</v>
-      </c>
       <c r="E329" s="9"/>
     </row>
-    <row r="330" s="1" customFormat="1" ht="57" spans="1:5">
+    <row r="330" spans="1:5" ht="57" x14ac:dyDescent="0.15">
       <c r="A330" s="3">
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C330" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D330" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="D330" s="4" t="s">
-        <v>665</v>
-      </c>
       <c r="E330" s="9"/>
     </row>
-    <row r="331" s="1" customFormat="1" ht="42.75" spans="1:5">
+    <row r="331" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A331" s="3">
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C331" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D331" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="D331" s="4" t="s">
-        <v>667</v>
-      </c>
       <c r="E331" s="9"/>
     </row>
-    <row r="332" s="1" customFormat="1" ht="42.75" spans="1:5">
+    <row r="332" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A332" s="3">
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C332" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D332" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="D332" s="4" t="s">
-        <v>669</v>
-      </c>
       <c r="E332" s="9"/>
     </row>
-    <row r="333" s="1" customFormat="1" ht="85.5" spans="1:5">
+    <row r="333" spans="1:5" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A333" s="3">
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C333" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="D333" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="D333" s="4" t="s">
-        <v>671</v>
-      </c>
       <c r="E333" s="9"/>
     </row>
-    <row r="334" s="1" customFormat="1" ht="85.5" spans="1:5">
+    <row r="334" spans="1:5" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A334" s="3">
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C334" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D334" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="D334" s="4" t="s">
-        <v>673</v>
-      </c>
       <c r="E334" s="9"/>
     </row>
-    <row r="335" s="1" customFormat="1" ht="85.5" spans="1:5">
+    <row r="335" spans="1:5" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A335" s="3">
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C335" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D335" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="D335" s="4" t="s">
-        <v>675</v>
-      </c>
       <c r="E335" s="9"/>
     </row>
-    <row r="336" s="1" customFormat="1" ht="57" spans="1:5">
+    <row r="336" spans="1:5" ht="57" x14ac:dyDescent="0.15">
       <c r="A336" s="3">
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C336" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D336" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="D336" s="4" t="s">
-        <v>677</v>
-      </c>
       <c r="E336" s="9"/>
     </row>
-    <row r="337" s="1" customFormat="1" ht="57" spans="1:5">
+    <row r="337" spans="1:5" ht="57" x14ac:dyDescent="0.15">
       <c r="A337" s="3">
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C337" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="D337" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="D337" s="4" t="s">
-        <v>679</v>
-      </c>
       <c r="E337" s="9"/>
     </row>
-    <row r="338" s="1" customFormat="1" ht="57" spans="1:5">
+    <row r="338" spans="1:5" ht="57" x14ac:dyDescent="0.15">
       <c r="A338" s="3">
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C338" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="D338" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="D338" s="4" t="s">
-        <v>681</v>
-      </c>
       <c r="E338" s="9"/>
     </row>
-    <row r="339" ht="42.75" spans="1:4">
+    <row r="339" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A339" s="3">
         <v>338</v>
       </c>
       <c r="B339" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="C339" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="C339" s="10" t="s">
+      <c r="D339" s="11" t="s">
         <v>683</v>
       </c>
-      <c r="D339" s="11" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="340" ht="71.25" spans="1:4">
+    </row>
+    <row r="340" spans="1:5" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A340" s="3">
         <v>339</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C340" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="D340" s="11" t="s">
         <v>685</v>
       </c>
-      <c r="D340" s="11" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="341" ht="42.75" spans="1:4">
+    </row>
+    <row r="341" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A341" s="3">
         <v>340</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C341" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="D341" s="13" t="s">
         <v>687</v>
       </c>
-      <c r="D341" s="13" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="342" ht="57" spans="1:4">
+    </row>
+    <row r="342" spans="1:5" ht="57" x14ac:dyDescent="0.15">
       <c r="A342" s="3">
         <v>341</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C342" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="D342" s="11" t="s">
         <v>689</v>
       </c>
-      <c r="D342" s="11" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="343" ht="57" spans="1:4">
+    </row>
+    <row r="343" spans="1:5" ht="57" x14ac:dyDescent="0.15">
       <c r="A343" s="3">
         <v>342</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C343" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="D343" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="D343" s="11" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="344" ht="57" spans="1:4">
+    </row>
+    <row r="344" spans="1:5" ht="57" x14ac:dyDescent="0.15">
       <c r="A344" s="3">
         <v>343</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C344" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="D344" s="11" t="s">
         <v>693</v>
       </c>
-      <c r="D344" s="11" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="345" ht="57" spans="1:4">
+    </row>
+    <row r="345" spans="1:5" ht="57" x14ac:dyDescent="0.15">
       <c r="A345" s="3">
         <v>344</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C345" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="D345" s="11" t="s">
         <v>695</v>
       </c>
-      <c r="D345" s="11" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="346" ht="57" spans="1:4">
+    </row>
+    <row r="346" spans="1:5" ht="57" x14ac:dyDescent="0.15">
       <c r="A346" s="3">
         <v>345</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C346" s="14" t="s">
+        <v>696</v>
+      </c>
+      <c r="D346" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="D346" s="11" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="347" ht="57" spans="1:4">
+    </row>
+    <row r="347" spans="1:5" ht="57" x14ac:dyDescent="0.15">
       <c r="A347" s="3">
         <v>346</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C347" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="D347" s="11" t="s">
         <v>699</v>
       </c>
-      <c r="D347" s="11" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="348" ht="57" spans="1:4">
+    </row>
+    <row r="348" spans="1:5" ht="57" x14ac:dyDescent="0.15">
       <c r="A348" s="3">
         <v>347</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C348" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="D348" s="11" t="s">
         <v>701</v>
       </c>
-      <c r="D348" s="11" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="349" ht="57" spans="1:4">
+    </row>
+    <row r="349" spans="1:5" ht="57" x14ac:dyDescent="0.15">
       <c r="A349" s="3">
         <v>348</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C349" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="D349" s="11" t="s">
         <v>703</v>
       </c>
-      <c r="D349" s="11" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="350" ht="42.75" spans="1:4">
+    </row>
+    <row r="350" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A350" s="3">
         <v>349</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C350" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="D350" s="11" t="s">
         <v>705</v>
       </c>
-      <c r="D350" s="11" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="351" ht="42.75" spans="1:4">
+    </row>
+    <row r="351" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A351" s="3">
         <v>350</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C351" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="D351" s="11" t="s">
         <v>707</v>
       </c>
-      <c r="D351" s="11" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="352" ht="42.75" spans="1:4">
+    </row>
+    <row r="352" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A352" s="3">
         <v>351</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C352" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="D352" s="15" t="s">
         <v>709</v>
       </c>
-      <c r="D352" s="15" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="353" ht="42.75" spans="1:4">
+    </row>
+    <row r="353" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A353" s="3">
         <v>352</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C353" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="D353" s="15" t="s">
         <v>711</v>
       </c>
-      <c r="D353" s="15" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="354" ht="57" spans="1:4">
+    </row>
+    <row r="354" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A354" s="3">
         <v>353</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C354" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="D354" s="15" t="s">
         <v>713</v>
       </c>
-      <c r="D354" s="15" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="355" ht="57" spans="1:4">
+    </row>
+    <row r="355" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A355" s="3">
         <v>354</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C355" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="D355" s="11" t="s">
         <v>715</v>
       </c>
-      <c r="D355" s="11" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="356" ht="42.75" spans="1:4">
+    </row>
+    <row r="356" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A356" s="3">
         <v>355</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C356" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="D356" s="15" t="s">
         <v>717</v>
       </c>
-      <c r="D356" s="15" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="357" ht="57" spans="1:4">
+    </row>
+    <row r="357" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A357" s="3">
         <v>356</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C357" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="D357" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="D357" s="11" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="358" ht="57" spans="1:4">
+    </row>
+    <row r="358" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A358" s="3">
         <v>357</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C358" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="D358" s="11" t="s">
         <v>721</v>
       </c>
-      <c r="D358" s="11" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="359" ht="42.75" spans="1:4">
+    </row>
+    <row r="359" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A359" s="3">
         <v>358</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C359" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="D359" s="11" t="s">
         <v>723</v>
       </c>
-      <c r="D359" s="11" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="360" ht="57" spans="1:4">
+    </row>
+    <row r="360" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A360" s="3">
         <v>359</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C360" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="D360" s="11" t="s">
         <v>725</v>
       </c>
-      <c r="D360" s="11" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="361" ht="57" spans="1:4">
+    </row>
+    <row r="361" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A361" s="3">
         <v>360</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C361" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="D361" s="15" t="s">
         <v>727</v>
       </c>
-      <c r="D361" s="15" t="s">
-        <v>728</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E361">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:E361" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>